--- a/data/trans_orig/P1429-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1429-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA07A855-7C7C-46D4-A0E0-E2EFF925EE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C62FB77C-CB14-4852-9EF2-888ED40090E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B019A5F5-9519-4C3C-A17C-10D85D7AEB0D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{93D3D102-554F-4D09-B296-9E728CB58574}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="385">
   <si>
     <t>Población con diagnóstico de osteoporosis en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -98,1102 +98,1090 @@
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,96%</t>
+    <t>1,86%</t>
   </si>
   <si>
     <t>0,09%</t>
   </si>
   <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de osteoporosis en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de osteoporosis en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de osteoporosis en 2023 (Tasa respuesta: 99,68%)</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
   </si>
   <si>
     <t>99,05%</t>
   </si>
   <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
   </si>
   <si>
     <t>98,85%</t>
   </si>
   <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
   </si>
   <si>
     <t>96,06%</t>
   </si>
   <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de osteoporosis en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de osteoporosis en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
   </si>
   <si>
     <t>13,97%</t>
   </si>
   <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
   </si>
   <si>
     <t>86,03%</t>
   </si>
   <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
   <si>
     <t>99,39%</t>
   </si>
   <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de osteoporosis en 2023 (Tasa respuesta: 99,68%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
+    <t>92,0%</t>
   </si>
   <si>
     <t>95,47%</t>
@@ -1202,7 +1190,10 @@
     <t>96,7%</t>
   </si>
   <si>
-    <t>95,31%</t>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
   </si>
 </sst>
 </file>
@@ -1614,7 +1605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF0B9E2-0F80-4F09-AF1C-57A1422A95CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A952195B-B08E-4AF0-9F7D-E9D10383B9BD}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2028,10 +2019,10 @@
         <v>40</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,10 +2070,10 @@
         <v>47</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2138,7 +2129,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2171,7 +2162,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2201,13 +2192,13 @@
         <v>2133</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -2216,13 +2207,13 @@
         <v>5201</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -2231,13 +2222,13 @@
         <v>7334</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2252,10 +2243,10 @@
         <v>636535</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>23</v>
@@ -2267,13 +2258,13 @@
         <v>684543</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M14" s="7">
         <v>1264</v>
@@ -2282,13 +2273,13 @@
         <v>1321078</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2344,7 +2335,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2362,7 +2353,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2407,13 +2398,13 @@
         <v>1821</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -2422,13 +2413,13 @@
         <v>14229</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -2437,13 +2428,13 @@
         <v>16050</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2458,10 +2449,10 @@
         <v>517326</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>23</v>
@@ -2473,13 +2464,13 @@
         <v>501413</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M18" s="7">
         <v>969</v>
@@ -2488,13 +2479,13 @@
         <v>1018739</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,7 +2541,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2568,7 +2559,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2583,7 +2574,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2598,7 +2589,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2613,13 +2604,13 @@
         <v>7643</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H21" s="7">
         <v>33</v>
@@ -2628,13 +2619,13 @@
         <v>34107</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M21" s="7">
         <v>40</v>
@@ -2643,13 +2634,13 @@
         <v>41750</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,13 +2655,13 @@
         <v>379067</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H22" s="7">
         <v>363</v>
@@ -2679,13 +2670,13 @@
         <v>369879</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M22" s="7">
         <v>748</v>
@@ -2694,13 +2685,13 @@
         <v>748946</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,7 +2747,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2774,7 +2765,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2789,7 +2780,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2804,7 +2795,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2819,13 +2810,13 @@
         <v>18304</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H25" s="7">
         <v>82</v>
@@ -2834,13 +2825,13 @@
         <v>86155</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M25" s="7">
         <v>102</v>
@@ -2849,10 +2840,10 @@
         <v>104459</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>111</v>
@@ -2870,13 +2861,13 @@
         <v>484162</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H26" s="7">
         <v>579</v>
@@ -2885,13 +2876,13 @@
         <v>590687</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M26" s="7">
         <v>1082</v>
@@ -2900,13 +2891,13 @@
         <v>1074849</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,7 +2971,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2995,7 +2986,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3010,7 +3001,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,13 +3016,13 @@
         <v>33826</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H29" s="7">
         <v>141</v>
@@ -3040,13 +3031,13 @@
         <v>145291</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M29" s="7">
         <v>175</v>
@@ -3055,13 +3046,13 @@
         <v>179117</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,13 +3067,13 @@
         <v>3242718</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H30" s="7">
         <v>3156</v>
@@ -3091,28 +3082,28 @@
         <v>3233907</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M30" s="7">
         <v>6336</v>
       </c>
       <c r="N30" s="7">
-        <v>6476623</v>
+        <v>6476624</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,7 +3145,7 @@
         <v>6511</v>
       </c>
       <c r="N31" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>25</v>
@@ -3168,7 +3159,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3190,7 +3181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A848FAC4-FFC0-44B4-B467-D69F8391E6DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD80C694-6D1E-4677-88A5-53AB57D6BE3E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3207,7 +3198,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3335,7 +3326,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3350,7 +3341,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,7 +3377,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3401,7 +3392,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,7 +3425,7 @@
         <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>25</v>
@@ -3449,7 +3440,7 @@
         <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>25</v>
@@ -3526,7 +3517,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3541,7 +3532,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3577,7 +3568,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -3586,13 +3577,13 @@
         <v>4408</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -3601,13 +3592,13 @@
         <v>4408</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,7 +3616,7 @@
         <v>23</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>25</v>
@@ -3637,13 +3628,13 @@
         <v>605847</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="M10" s="7">
         <v>1235</v>
@@ -3652,13 +3643,13 @@
         <v>1292934</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3714,7 +3705,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3732,7 +3723,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3747,7 +3738,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3783,7 +3774,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3798,7 +3789,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3813,7 +3804,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,7 +3822,7 @@
         <v>23</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>25</v>
@@ -3843,10 +3834,10 @@
         <v>707642</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -3861,7 +3852,7 @@
         <v>44</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>23</v>
@@ -3920,7 +3911,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3938,7 +3929,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3953,7 +3944,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3968,7 +3959,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,13 +3974,13 @@
         <v>1007</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -3998,13 +3989,13 @@
         <v>13769</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -4013,13 +4004,13 @@
         <v>14776</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,10 +4025,10 @@
         <v>613610</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>23</v>
@@ -4049,13 +4040,13 @@
         <v>600495</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c r="M18" s="7">
         <v>1072</v>
@@ -4064,13 +4055,13 @@
         <v>1214104</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4126,7 +4117,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4144,7 +4135,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4159,7 +4150,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4174,7 +4165,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4180,13 @@
         <v>983</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>179</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>180</v>
       </c>
       <c r="H21" s="7">
         <v>34</v>
@@ -4204,13 +4195,13 @@
         <v>35757</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M21" s="7">
         <v>35</v>
@@ -4219,13 +4210,13 @@
         <v>36740</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,10 +4231,10 @@
         <v>428446</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>64</v>
+        <v>187</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>23</v>
@@ -4255,13 +4246,13 @@
         <v>412043</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="M22" s="7">
         <v>764</v>
@@ -4270,13 +4261,13 @@
         <v>840489</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4332,7 +4323,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4365,7 +4356,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>53</v>
+        <v>195</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4380,7 +4371,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,7 +4392,7 @@
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="H25" s="7">
         <v>79</v>
@@ -4410,13 +4401,13 @@
         <v>86498</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="M25" s="7">
         <v>82</v>
@@ -4425,13 +4416,13 @@
         <v>90873</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>194</v>
+        <v>109</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,10 +4440,10 @@
         <v>26</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H26" s="7">
         <v>614</v>
@@ -4461,13 +4452,13 @@
         <v>655368</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="M26" s="7">
         <v>1114</v>
@@ -4476,13 +4467,13 @@
         <v>1209627</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>203</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,7 +4547,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4571,7 +4562,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4586,7 +4577,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,10 +4595,10 @@
         <v>15</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="H29" s="7">
         <v>131</v>
@@ -4616,13 +4607,13 @@
         <v>142365</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M29" s="7">
         <v>136</v>
@@ -4631,13 +4622,13 @@
         <v>148730</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,13 +4643,13 @@
         <v>3419411</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>211</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3164</v>
@@ -4667,13 +4658,13 @@
         <v>3411625</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M30" s="7">
         <v>6367</v>
@@ -4682,13 +4673,13 @@
         <v>6831036</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,7 +4735,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -4766,7 +4757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01885E65-0D2B-43D0-A4BB-18F1C9B0314C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41F9426-19CC-423E-AC44-165106733827}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4783,7 +4774,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4896,7 +4887,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4911,7 +4902,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4926,7 +4917,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,7 +4938,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4962,7 +4953,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4977,7 +4968,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4995,7 +4986,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>25</v>
@@ -5010,7 +5001,7 @@
         <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>25</v>
@@ -5025,7 +5016,7 @@
         <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>220</v>
+        <v>66</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>25</v>
@@ -5102,7 +5093,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5117,7 +5108,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5132,7 +5123,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,7 +5144,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5168,7 +5159,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5183,7 +5174,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5201,7 +5192,7 @@
         <v>23</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>25</v>
@@ -5216,7 +5207,7 @@
         <v>23</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>25</v>
@@ -5231,7 +5222,7 @@
         <v>23</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>25</v>
@@ -5290,7 +5281,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5308,7 +5299,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5323,7 +5314,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5359,7 +5350,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -5368,13 +5359,13 @@
         <v>3750</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -5383,13 +5374,13 @@
         <v>4671</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>226</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,7 +5398,7 @@
         <v>44</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>175</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>23</v>
@@ -5419,10 +5410,10 @@
         <v>657636</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>44</v>
@@ -5434,10 +5425,10 @@
         <v>1325812</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>26</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>44</v>
@@ -5496,7 +5487,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5514,7 +5505,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5544,7 +5535,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,13 +5550,13 @@
         <v>2225</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>230</v>
+        <v>168</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -5574,13 +5565,13 @@
         <v>7380</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -5589,13 +5580,13 @@
         <v>9605</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>147</v>
+        <v>52</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,10 +5601,10 @@
         <v>643823</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>234</v>
+        <v>175</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>23</v>
@@ -5625,28 +5616,28 @@
         <v>641697</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M18" s="7">
         <v>1175</v>
       </c>
       <c r="N18" s="7">
-        <v>1285520</v>
+        <v>1285521</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,7 +5679,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>25</v>
@@ -5702,7 +5693,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5720,7 +5711,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5735,7 +5726,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5750,7 +5741,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5765,13 +5756,13 @@
         <v>2194</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H21" s="7">
         <v>19</v>
@@ -5780,13 +5771,13 @@
         <v>22869</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>91</v>
+        <v>247</v>
       </c>
       <c r="M21" s="7">
         <v>21</v>
@@ -5795,13 +5786,13 @@
         <v>25063</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,10 +5807,10 @@
         <v>475724</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>23</v>
@@ -5831,13 +5822,13 @@
         <v>473980</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>99</v>
+        <v>254</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>836</v>
@@ -5846,13 +5837,13 @@
         <v>949704</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5908,7 +5899,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5941,7 +5932,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5971,13 +5962,13 @@
         <v>6432</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>68</v>
+        <v>259</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="H25" s="7">
         <v>76</v>
@@ -5986,13 +5977,13 @@
         <v>88163</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="M25" s="7">
         <v>83</v>
@@ -6001,13 +5992,13 @@
         <v>94595</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>258</v>
+        <v>109</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>259</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6022,13 +6013,13 @@
         <v>584896</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>74</v>
+        <v>266</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="H26" s="7">
         <v>579</v>
@@ -6037,13 +6028,13 @@
         <v>689768</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="M26" s="7">
         <v>1199</v>
@@ -6052,13 +6043,13 @@
         <v>1274664</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>266</v>
+        <v>208</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>267</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6132,7 +6123,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6147,7 +6138,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6162,7 +6153,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,13 +6168,13 @@
         <v>11772</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H29" s="7">
         <v>106</v>
@@ -6192,13 +6183,13 @@
         <v>122163</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M29" s="7">
         <v>118</v>
@@ -6207,13 +6198,13 @@
         <v>133935</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6228,13 +6219,13 @@
         <v>3382578</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H30" s="7">
         <v>3232</v>
@@ -6243,13 +6234,13 @@
         <v>3422379</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="M30" s="7">
         <v>6451</v>
@@ -6258,13 +6249,13 @@
         <v>6804957</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6320,7 +6311,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -6342,7 +6333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D46AA81-86BD-4649-9E0C-5D25CD2E1DC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F1000B-EC99-4452-B345-091A1F461F3B}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6359,7 +6350,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6472,7 +6463,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>283</v>
+        <v>58</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6487,7 +6478,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6502,7 +6493,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6517,13 +6508,13 @@
         <v>3667</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>286</v>
+        <v>74</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6532,13 +6523,13 @@
         <v>3366</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>290</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -6547,13 +6538,13 @@
         <v>7032</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>289</v>
+        <v>160</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6568,10 +6559,10 @@
         <v>374012</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>291</v>
+        <v>82</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>23</v>
@@ -6583,10 +6574,10 @@
         <v>351591</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>294</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>23</v>
@@ -6598,10 +6589,10 @@
         <v>725604</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>294</v>
+        <v>162</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>23</v>
@@ -6678,7 +6669,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6687,13 +6678,13 @@
         <v>637</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6702,13 +6693,13 @@
         <v>637</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6729,7 +6720,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6792,7 +6783,7 @@
         <v>302</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>23</v>
@@ -6804,10 +6795,10 @@
         <v>926974</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>304</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>23</v>
@@ -6866,7 +6857,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6884,7 +6875,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -6893,13 +6884,13 @@
         <v>27690</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -6908,13 +6899,13 @@
         <v>27690</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6935,7 +6926,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -6947,10 +6938,10 @@
         <v>38</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -6959,13 +6950,13 @@
         <v>4254</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>313</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6983,7 +6974,7 @@
         <v>47</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>23</v>
@@ -6995,10 +6986,10 @@
         <v>580067</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>24</v>
@@ -7010,13 +7001,13 @@
         <v>1133635</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7072,7 +7063,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7090,7 +7081,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7099,13 +7090,13 @@
         <v>407</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7114,13 +7105,13 @@
         <v>407</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7135,13 +7126,13 @@
         <v>2933</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -7150,13 +7141,13 @@
         <v>10915</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>323</v>
+        <v>160</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>104</v>
+        <v>321</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -7165,13 +7156,13 @@
         <v>13848</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7186,13 +7177,13 @@
         <v>718835</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H18" s="7">
         <v>1114</v>
@@ -7201,13 +7192,13 @@
         <v>732696</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M18" s="7">
         <v>1774</v>
@@ -7216,13 +7207,13 @@
         <v>1451531</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>291</v>
+        <v>82</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7278,7 +7269,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7296,7 +7287,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -7305,13 +7296,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7320,13 +7311,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>56</v>
+        <v>179</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7341,13 +7332,13 @@
         <v>5690</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>290</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>337</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>64</v>
@@ -7356,13 +7347,13 @@
         <v>38510</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M21" s="7">
         <v>71</v>
@@ -7371,13 +7362,13 @@
         <v>44200</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7392,13 +7383,13 @@
         <v>593396</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>29</v>
+        <v>294</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>344</v>
+        <v>27</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H22" s="7">
         <v>930</v>
@@ -7407,13 +7398,13 @@
         <v>551382</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M22" s="7">
         <v>1585</v>
@@ -7422,13 +7413,13 @@
         <v>1144778</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>93</v>
+        <v>345</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7484,7 +7475,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7517,7 +7508,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7532,7 +7523,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7547,13 +7538,13 @@
         <v>14991</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H25" s="7">
         <v>233</v>
@@ -7562,13 +7553,13 @@
         <v>121775</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="M25" s="7">
         <v>255</v>
@@ -7577,13 +7568,13 @@
         <v>136766</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7598,13 +7589,13 @@
         <v>679950</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H26" s="7">
         <v>1469</v>
@@ -7613,13 +7604,13 @@
         <v>900907</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M26" s="7">
         <v>2471</v>
@@ -7628,13 +7619,13 @@
         <v>1580857</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7708,7 +7699,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -7717,13 +7708,13 @@
         <v>31497</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>20</v>
+        <v>309</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -7732,13 +7723,13 @@
         <v>31497</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7753,13 +7744,13 @@
         <v>29648</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H29" s="7">
         <v>321</v>
@@ -7768,13 +7759,13 @@
         <v>176453</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M29" s="7">
         <v>356</v>
@@ -7783,13 +7774,13 @@
         <v>206101</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>377</v>
+        <v>275</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7804,13 +7795,13 @@
         <v>3348158</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H30" s="7">
         <v>5020</v>
@@ -7819,28 +7810,28 @@
         <v>3615221</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M30" s="7">
         <v>8353</v>
       </c>
       <c r="N30" s="7">
-        <v>6963380</v>
+        <v>6963379</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>278</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7882,7 +7873,7 @@
         <v>8715</v>
       </c>
       <c r="N31" s="7">
-        <v>7200977</v>
+        <v>7200976</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>25</v>
@@ -7896,7 +7887,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1429-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1429-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C62FB77C-CB14-4852-9EF2-888ED40090E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50D30263-696D-4665-BD17-0028BEEB0E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{93D3D102-554F-4D09-B296-9E728CB58574}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B92BECF3-47B6-430B-8244-5D12B0891E8D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="377">
   <si>
     <t>Población con diagnóstico de osteoporosis en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -98,1072 +98,1048 @@
     <t>0,2%</t>
   </si>
   <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de osteoporosis en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de osteoporosis en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de osteoporosis en 2023 (Tasa respuesta: 99,68%)</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
   </si>
   <si>
     <t>98,14%</t>
   </si>
   <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de osteoporosis en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de osteoporosis en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
   </si>
   <si>
     <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de osteoporosis en 2023 (Tasa respuesta: 99,68%)</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
   </si>
   <si>
     <t>2,54%</t>
@@ -1605,7 +1581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A952195B-B08E-4AF0-9F7D-E9D10383B9BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F154EB61-01FB-4EED-9C06-3D4DD8721AB7}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2428,13 +2404,13 @@
         <v>16050</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,10 +2425,10 @@
         <v>517326</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>23</v>
@@ -2464,13 +2440,13 @@
         <v>501413</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M18" s="7">
         <v>969</v>
@@ -2479,13 +2455,13 @@
         <v>1018739</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2541,7 +2517,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2559,7 +2535,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2574,7 +2550,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2604,13 +2580,13 @@
         <v>7643</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H21" s="7">
         <v>33</v>
@@ -2619,13 +2595,13 @@
         <v>34107</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M21" s="7">
         <v>40</v>
@@ -2634,13 +2610,13 @@
         <v>41750</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,7 +2631,7 @@
         <v>379067</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>96</v>
@@ -2846,7 +2822,7 @@
         <v>114</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,13 +2837,13 @@
         <v>484162</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H26" s="7">
         <v>579</v>
@@ -2876,13 +2852,13 @@
         <v>590687</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M26" s="7">
         <v>1082</v>
@@ -2891,13 +2867,13 @@
         <v>1074849</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,7 +2947,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2986,7 +2962,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3001,7 +2977,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,13 +2992,13 @@
         <v>33826</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H29" s="7">
         <v>141</v>
@@ -3031,13 +3007,13 @@
         <v>145291</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M29" s="7">
         <v>175</v>
@@ -3046,13 +3022,13 @@
         <v>179117</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,16 +3040,16 @@
         <v>3180</v>
       </c>
       <c r="D30" s="7">
-        <v>3242718</v>
+        <v>3242717</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H30" s="7">
         <v>3156</v>
@@ -3082,13 +3058,13 @@
         <v>3233907</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M30" s="7">
         <v>6336</v>
@@ -3097,13 +3073,13 @@
         <v>6476624</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,7 +3091,7 @@
         <v>3214</v>
       </c>
       <c r="D31" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>25</v>
@@ -3159,7 +3135,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3181,7 +3157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD80C694-6D1E-4677-88A5-53AB57D6BE3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6763B48-6636-4AFA-B590-6F6B89C2D6F5}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3198,7 +3174,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3326,7 +3302,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3341,7 +3317,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,7 +3353,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3392,7 +3368,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,7 +3401,7 @@
         <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>25</v>
@@ -3440,7 +3416,7 @@
         <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>25</v>
@@ -3532,7 +3508,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3577,13 +3553,13 @@
         <v>4408</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>106</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -3592,13 +3568,13 @@
         <v>4408</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,13 +3604,13 @@
         <v>605847</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M10" s="7">
         <v>1235</v>
@@ -3643,13 +3619,13 @@
         <v>1292934</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,7 +3765,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3804,7 +3780,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,10 +3810,10 @@
         <v>707642</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -4004,13 +3980,13 @@
         <v>14776</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,10 +4001,10 @@
         <v>613610</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>23</v>
@@ -4040,13 +4016,13 @@
         <v>600495</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M18" s="7">
         <v>1072</v>
@@ -4055,13 +4031,13 @@
         <v>1214104</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,7 +4093,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4135,7 +4111,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4150,7 +4126,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4180,13 +4156,13 @@
         <v>983</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H21" s="7">
         <v>34</v>
@@ -4195,13 +4171,13 @@
         <v>35757</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M21" s="7">
         <v>35</v>
@@ -4210,13 +4186,13 @@
         <v>36740</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,10 +4207,10 @@
         <v>428446</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>23</v>
@@ -4419,10 +4395,10 @@
         <v>200</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>201</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,10 +4446,10 @@
         <v>207</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4547,7 +4523,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4562,7 +4538,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4577,7 +4553,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,10 +4571,10 @@
         <v>15</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="H29" s="7">
         <v>131</v>
@@ -4607,13 +4583,13 @@
         <v>142365</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M29" s="7">
         <v>136</v>
@@ -4622,13 +4598,13 @@
         <v>148730</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,10 +4622,10 @@
         <v>203</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>30</v>
+        <v>215</v>
       </c>
       <c r="H30" s="7">
         <v>3164</v>
@@ -4658,13 +4634,13 @@
         <v>3411625</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M30" s="7">
         <v>6367</v>
@@ -4673,13 +4649,13 @@
         <v>6831036</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,7 +4711,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4757,7 +4733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41F9426-19CC-423E-AC44-165106733827}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E13A8C-A32D-4F17-9917-39259699B680}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4774,7 +4750,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4887,7 +4863,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4902,7 +4878,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4938,7 +4914,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4953,7 +4929,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4986,7 +4962,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>163</v>
+        <v>222</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>25</v>
@@ -5001,7 +4977,7 @@
         <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>25</v>
@@ -5093,7 +5069,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5123,7 +5099,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,7 +5120,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5174,7 +5150,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5192,7 +5168,7 @@
         <v>23</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>25</v>
@@ -5222,7 +5198,7 @@
         <v>23</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>25</v>
@@ -5299,7 +5275,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5350,7 +5326,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>228</v>
+        <v>171</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -5359,13 +5335,13 @@
         <v>3750</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -5380,7 +5356,7 @@
         <v>36</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>17</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5398,7 +5374,7 @@
         <v>44</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>179</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>23</v>
@@ -5410,10 +5386,10 @@
         <v>657636</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>44</v>
@@ -5425,10 +5401,10 @@
         <v>1325812</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>26</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>44</v>
@@ -5550,7 +5526,7 @@
         <v>2225</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
@@ -5565,13 +5541,13 @@
         <v>7380</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>235</v>
+        <v>167</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -5580,13 +5556,13 @@
         <v>9605</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>52</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5601,10 +5577,10 @@
         <v>643823</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>23</v>
@@ -5616,10 +5592,10 @@
         <v>641697</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>239</v>
+        <v>174</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>163</v>
@@ -5628,13 +5604,13 @@
         <v>1175</v>
       </c>
       <c r="N18" s="7">
-        <v>1285521</v>
+        <v>1285520</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>59</v>
@@ -5679,7 +5655,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>25</v>
@@ -5693,7 +5669,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5711,7 +5687,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5726,7 +5702,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5741,7 +5717,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,13 +5732,13 @@
         <v>2194</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="H21" s="7">
         <v>19</v>
@@ -5771,13 +5747,13 @@
         <v>22869</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M21" s="7">
         <v>21</v>
@@ -5786,13 +5762,13 @@
         <v>25063</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,10 +5783,10 @@
         <v>475724</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>23</v>
@@ -5822,13 +5798,13 @@
         <v>473980</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M22" s="7">
         <v>836</v>
@@ -5837,13 +5813,13 @@
         <v>949704</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,13 +5938,13 @@
         <v>6432</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="H25" s="7">
         <v>76</v>
@@ -5977,13 +5953,13 @@
         <v>88163</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M25" s="7">
         <v>83</v>
@@ -5992,13 +5968,13 @@
         <v>94595</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6013,13 +5989,13 @@
         <v>584896</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>268</v>
+        <v>47</v>
       </c>
       <c r="H26" s="7">
         <v>579</v>
@@ -6028,13 +6004,13 @@
         <v>689768</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="M26" s="7">
         <v>1199</v>
@@ -6043,13 +6019,13 @@
         <v>1274664</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>208</v>
+        <v>265</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>116</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6123,7 +6099,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6138,7 +6114,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6153,7 +6129,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6171,10 +6147,10 @@
         <v>69</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>15</v>
+        <v>223</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H29" s="7">
         <v>106</v>
@@ -6183,13 +6159,13 @@
         <v>122163</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M29" s="7">
         <v>118</v>
@@ -6198,13 +6174,13 @@
         <v>133935</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6219,13 +6195,13 @@
         <v>3382578</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="H30" s="7">
         <v>3232</v>
@@ -6234,13 +6210,13 @@
         <v>3422379</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M30" s="7">
         <v>6451</v>
@@ -6249,13 +6225,13 @@
         <v>6804957</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6311,7 +6287,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -6333,7 +6309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F1000B-EC99-4452-B345-091A1F461F3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF41561-63B9-41A9-940D-02BCB5AC37DC}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6350,7 +6326,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6478,7 +6454,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>288</v>
+        <v>88</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6493,7 +6469,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6508,13 +6484,13 @@
         <v>3667</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6523,13 +6499,13 @@
         <v>3366</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>290</v>
+        <v>39</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -6538,13 +6514,13 @@
         <v>7032</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>160</v>
+        <v>285</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6559,10 +6535,10 @@
         <v>374012</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>23</v>
@@ -6574,10 +6550,10 @@
         <v>351591</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>294</v>
+        <v>46</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>23</v>
@@ -6589,10 +6565,10 @@
         <v>725604</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>162</v>
+        <v>289</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>23</v>
@@ -6669,7 +6645,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6678,13 +6654,13 @@
         <v>637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6693,7 +6669,7 @@
         <v>637</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
@@ -6720,7 +6696,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6735,7 +6711,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6750,7 +6726,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6768,7 +6744,7 @@
         <v>23</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>25</v>
@@ -6780,10 +6756,10 @@
         <v>498578</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>23</v>
@@ -6795,7 +6771,7 @@
         <v>926974</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>47</v>
@@ -6884,13 +6860,13 @@
         <v>27690</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -6899,13 +6875,13 @@
         <v>27690</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6926,7 +6902,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>308</v>
+        <v>234</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -6938,10 +6914,10 @@
         <v>38</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -6956,7 +6932,7 @@
         <v>36</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>160</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6974,7 +6950,7 @@
         <v>47</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>311</v>
+        <v>237</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>23</v>
@@ -6986,10 +6962,10 @@
         <v>580067</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>24</v>
@@ -7001,13 +6977,13 @@
         <v>1133635</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7090,7 +7066,7 @@
         <v>407</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
@@ -7105,7 +7081,7 @@
         <v>407</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
@@ -7126,13 +7102,13 @@
         <v>2933</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -7141,13 +7117,13 @@
         <v>10915</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>160</v>
+        <v>285</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -7156,13 +7132,13 @@
         <v>13848</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>324</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7177,13 +7153,13 @@
         <v>718835</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="H18" s="7">
         <v>1114</v>
@@ -7192,13 +7168,13 @@
         <v>732696</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="M18" s="7">
         <v>1774</v>
@@ -7207,13 +7183,13 @@
         <v>1451531</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7269,7 +7245,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7296,13 +7272,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>333</v>
+        <v>76</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7311,13 +7287,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7332,13 +7308,13 @@
         <v>5690</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>290</v>
+        <v>39</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>68</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>325</v>
       </c>
       <c r="H21" s="7">
         <v>64</v>
@@ -7347,13 +7323,13 @@
         <v>38510</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="M21" s="7">
         <v>71</v>
@@ -7362,13 +7338,13 @@
         <v>44200</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7383,13 +7359,13 @@
         <v>593396</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>294</v>
+        <v>46</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>27</v>
+        <v>332</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="H22" s="7">
         <v>930</v>
@@ -7398,13 +7374,13 @@
         <v>551382</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="M22" s="7">
         <v>1585</v>
@@ -7413,13 +7389,13 @@
         <v>1144778</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7508,7 +7484,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7523,7 +7499,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7538,13 +7514,13 @@
         <v>14991</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H25" s="7">
         <v>233</v>
@@ -7553,13 +7529,13 @@
         <v>121775</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="M25" s="7">
         <v>255</v>
@@ -7568,13 +7544,13 @@
         <v>136766</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7589,13 +7565,13 @@
         <v>679950</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="H26" s="7">
         <v>1469</v>
@@ -7604,13 +7580,13 @@
         <v>900907</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="M26" s="7">
         <v>2471</v>
@@ -7619,13 +7595,13 @@
         <v>1580857</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7699,7 +7675,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -7708,13 +7684,13 @@
         <v>31497</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -7723,13 +7699,13 @@
         <v>31497</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>368</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7744,13 +7720,13 @@
         <v>29648</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H29" s="7">
         <v>321</v>
@@ -7759,13 +7735,13 @@
         <v>176453</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="M29" s="7">
         <v>356</v>
@@ -7774,13 +7750,13 @@
         <v>206101</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>275</v>
+        <v>366</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7795,13 +7771,13 @@
         <v>3348158</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="H30" s="7">
         <v>5020</v>
@@ -7810,13 +7786,13 @@
         <v>3615221</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="M30" s="7">
         <v>8353</v>
@@ -7825,13 +7801,13 @@
         <v>6963379</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7887,7 +7863,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1429-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1429-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E47E7527-ACE3-4E8D-B5EA-082738B0E290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECD393B3-B4AC-4F73-A6E0-A0DE7E481172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F9B4D971-74E7-4C36-AD0E-6BA26AE0537D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0AE01418-6685-4899-B8C7-BF454AD2038A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="408">
   <si>
     <t>Población con diagnóstico de osteoporosis en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -125,7 +125,7 @@
     <t>99,91%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,53%</t>
@@ -170,7 +170,7 @@
     <t>99,84%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -215,7 +215,7 @@
     <t>99,77%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,35%</t>
@@ -254,7 +254,7 @@
     <t>97,52%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>1,98%</t>
@@ -311,61 +311,118 @@
     <t>96,34%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
   </si>
   <si>
     <t>1,03%</t>
@@ -566,78 +623,126 @@
     <t>97,08%</t>
   </si>
   <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
   </si>
   <si>
     <t>99,81%</t>
   </si>
   <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
     <t>99,52%</t>
   </si>
   <si>
@@ -740,9 +845,6 @@
     <t>2,57%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
     <t>3,73%</t>
   </si>
   <si>
@@ -764,55 +866,100 @@
     <t>96,27%</t>
   </si>
   <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
   </si>
   <si>
     <t>0,61%</t>
@@ -860,34 +1007,22 @@
     <t>Población con diagnóstico de osteoporosis en 2023 (Tasa respuesta: 99,61%)</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
   </si>
   <si>
     <t>0,63%</t>
@@ -908,238 +1043,226 @@
     <t>99,75%</t>
   </si>
   <si>
-    <t>1,5%</t>
+    <t>0,4%</t>
   </si>
   <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
   </si>
   <si>
     <t>99,68%</t>
   </si>
   <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
   </si>
   <si>
     <t>1,24%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
   </si>
   <si>
     <t>98,76%</t>
   </si>
   <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
   </si>
 </sst>
 </file>
@@ -1551,8 +1674,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5FE523-E5F0-4E69-A9B3-995D2CDD3A04}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD424B03-0209-4F07-B701-CA8C68818B67}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2444,10 +2567,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>18304</v>
+        <v>8336</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>91</v>
@@ -2459,10 +2582,10 @@
         <v>93</v>
       </c>
       <c r="H19" s="7">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="I19" s="7">
-        <v>86155</v>
+        <v>40847</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>94</v>
@@ -2474,10 +2597,10 @@
         <v>96</v>
       </c>
       <c r="M19" s="7">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="N19" s="7">
-        <v>104459</v>
+        <v>49183</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>97</v>
@@ -2495,10 +2618,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>503</v>
+        <v>294</v>
       </c>
       <c r="D20" s="7">
-        <v>484162</v>
+        <v>284247</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>100</v>
@@ -2510,10 +2633,10 @@
         <v>102</v>
       </c>
       <c r="H20" s="7">
-        <v>579</v>
+        <v>328</v>
       </c>
       <c r="I20" s="7">
-        <v>590687</v>
+        <v>302087</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>103</v>
@@ -2525,10 +2648,10 @@
         <v>105</v>
       </c>
       <c r="M20" s="7">
-        <v>1082</v>
+        <v>622</v>
       </c>
       <c r="N20" s="7">
-        <v>1074849</v>
+        <v>586334</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>106</v>
@@ -2546,10 +2669,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>22</v>
@@ -2561,10 +2684,10 @@
         <v>22</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>22</v>
@@ -2576,10 +2699,10 @@
         <v>22</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>22</v>
@@ -2593,55 +2716,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D22" s="7">
-        <v>33826</v>
+        <v>9968</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="I22" s="7">
-        <v>145291</v>
+        <v>45308</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="N22" s="7">
-        <v>179117</v>
+        <v>55276</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,49 +2773,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>3180</v>
+        <v>209</v>
       </c>
       <c r="D23" s="7">
-        <v>3242718</v>
+        <v>199915</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H23" s="7">
-        <v>3156</v>
+        <v>251</v>
       </c>
       <c r="I23" s="7">
-        <v>3233907</v>
+        <v>288600</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M23" s="7">
-        <v>6336</v>
+        <v>460</v>
       </c>
       <c r="N23" s="7">
-        <v>6476623</v>
+        <v>488515</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2701,63 +2824,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>34</v>
+      </c>
+      <c r="D25" s="7">
+        <v>33826</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" s="7">
+        <v>141</v>
+      </c>
+      <c r="I25" s="7">
+        <v>145291</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M25" s="7">
+        <v>175</v>
+      </c>
+      <c r="N25" s="7">
+        <v>179117</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3180</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3242717</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3156</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3233906</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6336</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6476624</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>127</v>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2770,8 +3049,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F2ED0A-7A5B-4C09-8F8E-9F2B022BAC42}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E14811-F28E-4286-85D1-DF433E616EEF}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2787,7 +3066,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2915,7 +3194,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2930,7 +3209,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,7 +3242,7 @@
         <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>22</v>
@@ -2978,7 +3257,7 @@
         <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>22</v>
@@ -3055,7 +3334,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3064,13 +3343,13 @@
         <v>4408</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3079,13 +3358,13 @@
         <v>4408</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,7 +3382,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>22</v>
@@ -3115,10 +3394,10 @@
         <v>605847</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>42</v>
@@ -3130,13 +3409,13 @@
         <v>1292934</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,7 +3489,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3219,13 +3498,13 @@
         <v>1932</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3240,7 +3519,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,7 +3537,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>22</v>
@@ -3270,10 +3549,10 @@
         <v>707642</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>20</v>
@@ -3288,7 +3567,7 @@
         <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>20</v>
@@ -3365,7 +3644,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -3374,13 +3653,13 @@
         <v>13769</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>33</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -3389,13 +3668,13 @@
         <v>14776</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,7 +3692,7 @@
         <v>42</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>20</v>
@@ -3425,10 +3704,10 @@
         <v>600495</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>40</v>
@@ -3440,13 +3719,13 @@
         <v>1214104</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3808,13 @@
         <v>35757</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -3544,13 +3823,13 @@
         <v>36740</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,13 +3859,13 @@
         <v>412043</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
         <v>764</v>
@@ -3595,13 +3874,13 @@
         <v>840489</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,49 +3942,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>4375</v>
+        <v>1071</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="H19" s="7">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="I19" s="7">
-        <v>86498</v>
+        <v>31772</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="M19" s="7">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="N19" s="7">
-        <v>90873</v>
+        <v>32843</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3714,49 +3993,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>500</v>
+        <v>281</v>
       </c>
       <c r="D20" s="7">
-        <v>554259</v>
+        <v>308715</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>184</v>
+        <v>20</v>
       </c>
       <c r="H20" s="7">
-        <v>614</v>
+        <v>315</v>
       </c>
       <c r="I20" s="7">
-        <v>655368</v>
+        <v>322224</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="M20" s="7">
-        <v>1114</v>
+        <v>596</v>
       </c>
       <c r="N20" s="7">
-        <v>1209627</v>
+        <v>630939</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3765,10 +4044,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>503</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>558634</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>22</v>
@@ -3780,10 +4059,10 @@
         <v>22</v>
       </c>
       <c r="H21" s="7">
-        <v>693</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>741866</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>22</v>
@@ -3795,10 +4074,10 @@
         <v>22</v>
       </c>
       <c r="M21" s="7">
-        <v>1196</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1300500</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>22</v>
@@ -3812,55 +4091,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>6365</v>
+        <v>3305</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="H22" s="7">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="I22" s="7">
-        <v>142365</v>
+        <v>54726</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="M22" s="7">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="N22" s="7">
-        <v>148730</v>
+        <v>58031</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,49 +4148,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>3203</v>
+        <v>219</v>
       </c>
       <c r="D23" s="7">
-        <v>3419411</v>
+        <v>245543</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="H23" s="7">
-        <v>3164</v>
+        <v>299</v>
       </c>
       <c r="I23" s="7">
-        <v>3411625</v>
+        <v>333144</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="M23" s="7">
-        <v>6367</v>
+        <v>518</v>
       </c>
       <c r="N23" s="7">
-        <v>6831036</v>
+        <v>578687</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,63 +4199,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>221</v>
+      </c>
+      <c r="D24" s="7">
+        <v>248848</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="7">
+        <v>349</v>
+      </c>
+      <c r="I24" s="7">
+        <v>387870</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="7">
+        <v>570</v>
+      </c>
+      <c r="N24" s="7">
+        <v>636718</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>5</v>
+      </c>
+      <c r="D25" s="7">
+        <v>6365</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H25" s="7">
+        <v>131</v>
+      </c>
+      <c r="I25" s="7">
+        <v>142365</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M25" s="7">
+        <v>136</v>
+      </c>
+      <c r="N25" s="7">
+        <v>148730</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3203</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3419411</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3164</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3411625</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6367</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6831036</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3208</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3425776</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="7">
         <v>3295</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3553990</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="7">
         <v>6503</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6979766</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>127</v>
+      <c r="O27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3989,8 +4424,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECD8365-4DFB-40ED-A421-E27321ED2BDC}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA86FAF6-961A-465A-8B5C-1DFC81F84C91}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4006,7 +4441,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4119,7 +4554,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4134,7 +4569,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4149,7 +4584,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,7 +4602,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -4182,7 +4617,7 @@
         <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>22</v>
@@ -4197,7 +4632,7 @@
         <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>22</v>
@@ -4274,7 +4709,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4304,7 +4739,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,7 +4757,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>22</v>
@@ -4352,7 +4787,7 @@
         <v>20</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>22</v>
@@ -4429,7 +4864,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -4438,13 +4873,13 @@
         <v>3750</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -4459,7 +4894,7 @@
         <v>30</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,7 +4912,7 @@
         <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>20</v>
@@ -4489,10 +4924,10 @@
         <v>657636</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>38</v>
@@ -4507,7 +4942,7 @@
         <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>38</v>
@@ -4578,13 +5013,13 @@
         <v>2225</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -4593,13 +5028,13 @@
         <v>7380</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -4608,13 +5043,13 @@
         <v>9605</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,10 +5064,10 @@
         <v>643823</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>20</v>
@@ -4644,13 +5079,13 @@
         <v>641697</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="M14" s="7">
         <v>1175</v>
@@ -4659,13 +5094,13 @@
         <v>1285520</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4733,13 +5168,13 @@
         <v>2194</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -4748,10 +5183,10 @@
         <v>22869</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>80</v>
@@ -4763,13 +5198,13 @@
         <v>25063</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4784,10 +5219,10 @@
         <v>475724</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>20</v>
@@ -4799,13 +5234,13 @@
         <v>473980</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>88</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="M17" s="7">
         <v>836</v>
@@ -4814,13 +5249,13 @@
         <v>949704</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,49 +5317,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>6432</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="H19" s="7">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="I19" s="7">
-        <v>88163</v>
+        <v>43945</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="M19" s="7">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="N19" s="7">
-        <v>94595</v>
+        <v>43945</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,49 +5368,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>620</v>
+        <v>325</v>
       </c>
       <c r="D20" s="7">
-        <v>584896</v>
+        <v>334330</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>251</v>
+        <v>22</v>
       </c>
       <c r="H20" s="7">
-        <v>579</v>
+        <v>312</v>
       </c>
       <c r="I20" s="7">
-        <v>689768</v>
+        <v>333817</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="M20" s="7">
-        <v>1199</v>
+        <v>637</v>
       </c>
       <c r="N20" s="7">
-        <v>1274664</v>
+        <v>668147</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4984,10 +5419,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>22</v>
@@ -4999,10 +5434,10 @@
         <v>22</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>22</v>
@@ -5014,10 +5449,10 @@
         <v>22</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>22</v>
@@ -5031,55 +5466,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D22" s="7">
-        <v>11772</v>
+        <v>6432</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>59</v>
+        <v>289</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="H22" s="7">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="I22" s="7">
-        <v>122163</v>
+        <v>44219</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="M22" s="7">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="N22" s="7">
-        <v>133935</v>
+        <v>50651</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,49 +5523,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>3219</v>
+        <v>295</v>
       </c>
       <c r="D23" s="7">
-        <v>3382578</v>
+        <v>250566</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>65</v>
+        <v>298</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>184</v>
+        <v>300</v>
       </c>
       <c r="H23" s="7">
-        <v>3232</v>
+        <v>267</v>
       </c>
       <c r="I23" s="7">
-        <v>3422379</v>
+        <v>355950</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="M23" s="7">
-        <v>6451</v>
+        <v>562</v>
       </c>
       <c r="N23" s="7">
-        <v>6804957</v>
+        <v>606516</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,63 +5574,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>12</v>
+      </c>
+      <c r="D25" s="7">
+        <v>11772</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H25" s="7">
+        <v>106</v>
+      </c>
+      <c r="I25" s="7">
+        <v>122163</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="M25" s="7">
+        <v>118</v>
+      </c>
+      <c r="N25" s="7">
+        <v>133935</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3219</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3382578</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3232</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3422379</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6451</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6804957</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>127</v>
+      <c r="O27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5208,8 +5799,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0B915F-55FA-498F-AD79-5FC231A11998}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0157C982-1A22-4CD7-8AC9-2A550119D473}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5225,7 +5816,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5329,46 +5920,46 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>3667</v>
+        <v>4077</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>273</v>
+        <v>157</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>3366</v>
+        <v>2677</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>18</v>
+        <v>323</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>275</v>
+        <v>185</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>7032</v>
+        <v>6754</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>276</v>
+        <v>18</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>277</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5380,13 +5971,13 @@
         <v>171</v>
       </c>
       <c r="D5" s="7">
-        <v>374012</v>
+        <v>395910</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>278</v>
+        <v>162</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>279</v>
+        <v>325</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>20</v>
@@ -5395,13 +5986,13 @@
         <v>206</v>
       </c>
       <c r="I5" s="7">
-        <v>351591</v>
+        <v>310523</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>26</v>
+        <v>326</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>280</v>
+        <v>191</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>20</v>
@@ -5410,13 +6001,13 @@
         <v>377</v>
       </c>
       <c r="N5" s="7">
-        <v>725604</v>
+        <v>706433</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>281</v>
+        <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>20</v>
@@ -5431,7 +6022,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>22</v>
@@ -5446,7 +6037,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>22</v>
@@ -5461,7 +6052,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>22</v>
@@ -5493,7 +6084,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>283</v>
+        <v>328</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5508,7 +6099,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -5523,7 +6114,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,13 +6126,13 @@
         <v>302</v>
       </c>
       <c r="D8" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>286</v>
+        <v>331</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>22</v>
@@ -5550,13 +6141,13 @@
         <v>460</v>
       </c>
       <c r="I8" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>287</v>
+        <v>332</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>22</v>
@@ -5565,13 +6156,13 @@
         <v>762</v>
       </c>
       <c r="N8" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>288</v>
+        <v>333</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>22</v>
@@ -5586,7 +6177,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>22</v>
@@ -5601,7 +6192,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>22</v>
@@ -5616,7 +6207,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>22</v>
@@ -5639,46 +6230,46 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>2367</v>
+        <v>2127</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>334</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>289</v>
+        <v>130</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>1886</v>
+        <v>1726</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>290</v>
+        <v>335</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>291</v>
+        <v>336</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>4254</v>
+        <v>3853</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>292</v>
+        <v>337</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>30</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>293</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5690,13 +6281,13 @@
         <v>543</v>
       </c>
       <c r="D11" s="7">
-        <v>553569</v>
+        <v>532890</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>41</v>
+        <v>339</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>294</v>
+        <v>138</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>20</v>
@@ -5705,13 +6296,13 @@
         <v>841</v>
       </c>
       <c r="I11" s="7">
-        <v>580067</v>
+        <v>539302</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>295</v>
+        <v>340</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>27</v>
@@ -5720,13 +6311,13 @@
         <v>1384</v>
       </c>
       <c r="N11" s="7">
-        <v>1133636</v>
+        <v>1072191</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>38</v>
@@ -5741,7 +6332,7 @@
         <v>545</v>
       </c>
       <c r="D12" s="7">
-        <v>555936</v>
+        <v>535017</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>22</v>
@@ -5756,7 +6347,7 @@
         <v>844</v>
       </c>
       <c r="I12" s="7">
-        <v>581953</v>
+        <v>541028</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>22</v>
@@ -5771,7 +6362,7 @@
         <v>1389</v>
       </c>
       <c r="N12" s="7">
-        <v>1137890</v>
+        <v>1076044</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>22</v>
@@ -5794,46 +6385,46 @@
         <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>2933</v>
+        <v>2653</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>301</v>
+        <v>18</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
       </c>
       <c r="I13" s="7">
-        <v>10915</v>
+        <v>10186</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>304</v>
+        <v>347</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
       </c>
       <c r="N13" s="7">
-        <v>13848</v>
+        <v>12840</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>305</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,46 +6436,46 @@
         <v>660</v>
       </c>
       <c r="D14" s="7">
-        <v>718835</v>
+        <v>883028</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>309</v>
+        <v>20</v>
       </c>
       <c r="H14" s="7">
         <v>1114</v>
       </c>
       <c r="I14" s="7">
-        <v>732696</v>
+        <v>699242</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="M14" s="7">
         <v>1774</v>
       </c>
       <c r="N14" s="7">
-        <v>1451531</v>
+        <v>1582269</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>314</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5896,7 +6487,7 @@
         <v>663</v>
       </c>
       <c r="D15" s="7">
-        <v>721768</v>
+        <v>885681</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>22</v>
@@ -5911,7 +6502,7 @@
         <v>1134</v>
       </c>
       <c r="I15" s="7">
-        <v>743611</v>
+        <v>709428</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>22</v>
@@ -5926,7 +6517,7 @@
         <v>1797</v>
       </c>
       <c r="N15" s="7">
-        <v>1465379</v>
+        <v>1595109</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>22</v>
@@ -5949,46 +6540,46 @@
         <v>7</v>
       </c>
       <c r="D16" s="7">
-        <v>5690</v>
+        <v>5685</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>18</v>
+        <v>354</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="H16" s="7">
         <v>64</v>
       </c>
       <c r="I16" s="7">
-        <v>38510</v>
+        <v>35366</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="M16" s="7">
         <v>71</v>
       </c>
       <c r="N16" s="7">
-        <v>44200</v>
+        <v>41051</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>320</v>
+        <v>268</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6000,46 +6591,46 @@
         <v>655</v>
       </c>
       <c r="D17" s="7">
-        <v>593396</v>
+        <v>554552</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>26</v>
+        <v>361</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="H17" s="7">
         <v>930</v>
       </c>
       <c r="I17" s="7">
-        <v>551383</v>
+        <v>506147</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="M17" s="7">
         <v>1585</v>
       </c>
       <c r="N17" s="7">
-        <v>1144779</v>
+        <v>1060699</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>328</v>
+        <v>274</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6051,7 +6642,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599086</v>
+        <v>560237</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>22</v>
@@ -6066,7 +6657,7 @@
         <v>994</v>
       </c>
       <c r="I18" s="7">
-        <v>589893</v>
+        <v>541513</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>22</v>
@@ -6081,7 +6672,7 @@
         <v>1656</v>
       </c>
       <c r="N18" s="7">
-        <v>1188979</v>
+        <v>1101750</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>22</v>
@@ -6101,49 +6692,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>14991</v>
+        <v>5955</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>331</v>
+        <v>264</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>332</v>
+        <v>165</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>333</v>
+        <v>266</v>
       </c>
       <c r="H19" s="7">
-        <v>233</v>
+        <v>82</v>
       </c>
       <c r="I19" s="7">
-        <v>121775</v>
+        <v>40984</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="M19" s="7">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="N19" s="7">
-        <v>136766</v>
+        <v>46939</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>338</v>
+        <v>232</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,49 +6743,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>1002</v>
+        <v>557</v>
       </c>
       <c r="D20" s="7">
-        <v>679950</v>
+        <v>360227</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>341</v>
+        <v>272</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>342</v>
+        <v>168</v>
       </c>
       <c r="H20" s="7">
-        <v>1469</v>
+        <v>742</v>
       </c>
       <c r="I20" s="7">
-        <v>900907</v>
+        <v>565629</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>343</v>
+        <v>373</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="M20" s="7">
-        <v>2471</v>
+        <v>1299</v>
       </c>
       <c r="N20" s="7">
-        <v>1580857</v>
+        <v>925857</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>346</v>
+        <v>376</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>348</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6203,10 +6794,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1024</v>
+        <v>567</v>
       </c>
       <c r="D21" s="7">
-        <v>694941</v>
+        <v>366182</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>22</v>
@@ -6218,10 +6809,10 @@
         <v>22</v>
       </c>
       <c r="H21" s="7">
-        <v>1702</v>
+        <v>824</v>
       </c>
       <c r="I21" s="7">
-        <v>1022682</v>
+        <v>606613</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>22</v>
@@ -6233,10 +6824,10 @@
         <v>22</v>
       </c>
       <c r="M21" s="7">
-        <v>2726</v>
+        <v>1391</v>
       </c>
       <c r="N21" s="7">
-        <v>1717623</v>
+        <v>972796</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>22</v>
@@ -6250,55 +6841,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D22" s="7">
-        <v>29648</v>
+        <v>7820</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="H22" s="7">
-        <v>321</v>
+        <v>151</v>
       </c>
       <c r="I22" s="7">
-        <v>176453</v>
+        <v>69517</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="M22" s="7">
-        <v>356</v>
+        <v>163</v>
       </c>
       <c r="N22" s="7">
-        <v>206101</v>
+        <v>77337</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,49 +6898,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>3333</v>
+        <v>445</v>
       </c>
       <c r="D23" s="7">
-        <v>3348158</v>
+        <v>274312</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>359</v>
+        <v>388</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="H23" s="7">
-        <v>5020</v>
+        <v>727</v>
       </c>
       <c r="I23" s="7">
-        <v>3615221</v>
+        <v>354537</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="M23" s="7">
-        <v>8353</v>
+        <v>1172</v>
       </c>
       <c r="N23" s="7">
-        <v>6963379</v>
+        <v>628849</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6358,63 +6949,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>457</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282132</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="7">
+        <v>878</v>
+      </c>
+      <c r="I24" s="7">
+        <v>424054</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1335</v>
+      </c>
+      <c r="N24" s="7">
+        <v>706186</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>35</v>
+      </c>
+      <c r="D25" s="7">
+        <v>28317</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H25" s="7">
+        <v>321</v>
+      </c>
+      <c r="I25" s="7">
+        <v>160456</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M25" s="7">
+        <v>356</v>
+      </c>
+      <c r="N25" s="7">
+        <v>188773</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3333</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3424466</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5020</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3486884</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8353</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6911350</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3368</v>
       </c>
-      <c r="D24" s="7">
-        <v>3377806</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3452783</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="7">
         <v>5341</v>
       </c>
-      <c r="I24" s="7">
-        <v>3791674</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3647340</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="7">
         <v>8709</v>
       </c>
-      <c r="N24" s="7">
-        <v>7169480</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>127</v>
+      <c r="N27" s="7">
+        <v>7100123</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
